--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -316,9 +316,6 @@
     <t>m5 m14</t>
   </si>
   <si>
-    <t>putative homotetramer (metacyc). From pdb, might actually be a monomer. Tryptophan is substate inhibitor</t>
-  </si>
-  <si>
     <t>UniUniPromiscuous</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>r2 r5</t>
   </si>
   <si>
-    <t>homodimer (metacyc), inhib by serotonin</t>
-  </si>
-  <si>
     <t>OrdPromiscCompInhibIndep</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>r3 r6</t>
   </si>
   <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc)</t>
-  </si>
-  <si>
     <t>orderedBiBi</t>
   </si>
   <si>
@@ -358,16 +349,7 @@
     <t>m9 m13</t>
   </si>
   <si>
-    <t>ASMT has a C-terminal domain similar to other SAM-dependent O-methyltransferases, and an N-terminal domain which intertwines with another monomer to form the physiologically active dimer  (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
     <t>massAction</t>
-  </si>
-  <si>
-    <t>Modeled as mass action</t>
   </si>
   <si>
     <t>diffusion</t>
@@ -508,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="L2:L14 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -642,7 +624,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="L2:L14 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,7 +770,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L14 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,7 +993,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L14 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1331,17 +1313,17 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -1406,34 +1388,28 @@
       <c r="K2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,16 +1417,16 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>27</v>
@@ -1460,9 +1436,6 @@
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,22 +1443,19 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,25 +1463,22 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,16 +1486,16 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>27</v>
@@ -1538,9 +1505,6 @@
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1512,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1562,16 +1526,13 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,16 +1540,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,16 +1554,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,16 +1568,13 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,16 +1582,13 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,16 +1596,13 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1624,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L14 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2615,7 +2561,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="L2:L14 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3062,7 +3008,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:L14 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3288,7 +3234,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:L14 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3385,7 +3331,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:L14 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3517,7 +3463,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:L14 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3649,7 +3595,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L14 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3830,7 +3776,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="L2:L14 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,330 +32,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_freeExchange</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>freeExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="110">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_freeExchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freeExchange</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -446,13 +452,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -488,15 +498,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="L2:L14 B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,62 +541,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -594,21 +604,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -623,35 +641,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="L2:L14 A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -668,7 +686,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -685,7 +703,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -702,7 +720,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -719,7 +737,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -736,7 +754,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -754,7 +772,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -769,32 +787,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L14 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -808,7 +826,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -822,7 +840,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -836,7 +854,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -850,7 +868,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -864,7 +882,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -878,7 +896,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -892,7 +910,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -906,7 +924,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -920,7 +938,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -934,7 +952,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -948,7 +966,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -962,7 +980,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -977,7 +995,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -992,32 +1010,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L14 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1031,7 +1049,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1045,7 +1063,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1059,7 +1077,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1073,7 +1091,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1087,7 +1105,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1101,7 +1119,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1115,7 +1133,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1129,7 +1147,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1143,7 +1161,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1157,7 +1175,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1171,7 +1189,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1185,7 +1203,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1199,7 +1217,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1213,7 +1231,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1227,7 +1245,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1241,7 +1259,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1255,7 +1273,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1269,7 +1287,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1283,7 +1301,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1298,7 +1316,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1313,74 +1331,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1391,19 +1409,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1414,22 +1432,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1440,16 +1458,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1460,19 +1478,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1483,22 +1501,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1509,10 +1527,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1523,10 +1541,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1537,10 +1555,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1551,10 +1569,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1565,10 +1583,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1579,10 +1597,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1593,10 +1611,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1608,7 +1626,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1623,83 +1641,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L14 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1764,7 +1782,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1829,7 +1847,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1894,7 +1912,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1959,7 +1977,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2024,7 +2042,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2089,7 +2107,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2154,7 +2172,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2219,7 +2237,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2284,7 +2302,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2349,7 +2367,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2414,7 +2432,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2479,7 +2497,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2545,7 +2563,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2560,41 +2578,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="L2:L14 D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2611,10 +2629,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2631,10 +2649,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2651,10 +2669,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2671,10 +2689,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2691,10 +2709,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2711,10 +2729,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2731,10 +2749,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2751,10 +2769,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2771,10 +2789,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2791,10 +2809,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2811,10 +2829,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2831,10 +2849,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2851,10 +2869,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2871,10 +2889,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2891,10 +2909,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2911,10 +2929,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2931,10 +2949,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2951,10 +2969,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2971,10 +2989,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2992,7 +3010,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3007,38 +3025,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:L14 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3049,10 +3067,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3063,10 +3081,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3077,10 +3095,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3091,10 +3109,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3105,10 +3123,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3119,10 +3137,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3133,10 +3151,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3147,10 +3165,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3161,10 +3179,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3175,10 +3193,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3189,10 +3207,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3203,10 +3221,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3218,7 +3236,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3233,89 +3251,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:L14 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3330,124 +3348,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:L14 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3462,124 +3480,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:L14 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3594,29 +3612,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L14 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3627,7 +3645,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3638,7 +3656,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3649,7 +3667,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3660,7 +3678,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3671,7 +3689,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3682,7 +3700,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3693,7 +3711,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3704,7 +3722,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3715,7 +3733,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3726,7 +3744,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3737,7 +3755,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3748,7 +3766,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3760,7 +3778,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3775,29 +3793,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="L2:L14 H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3808,7 +3826,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3819,7 +3837,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3830,7 +3848,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3841,7 +3859,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3852,7 +3870,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3863,7 +3881,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3874,7 +3892,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3885,7 +3903,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3896,7 +3914,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3907,7 +3925,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3918,7 +3936,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3929,7 +3947,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3940,7 +3958,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3951,7 +3969,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3962,7 +3980,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3973,7 +3991,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3984,7 +4002,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3995,7 +4013,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4006,7 +4024,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -4018,7 +4036,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_freeExchange</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -498,15 +480,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,24 +500,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -593,6 +576,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -602,27 +588,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -642,7 +612,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -652,24 +622,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -686,7 +656,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -703,7 +673,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -720,7 +690,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -737,7 +707,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -754,7 +724,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -788,7 +758,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,21 +768,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -826,7 +796,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -840,7 +810,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -854,7 +824,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -868,7 +838,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -882,7 +852,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -896,7 +866,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -910,7 +880,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -924,7 +894,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -938,7 +908,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -952,7 +922,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -966,7 +936,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -980,7 +950,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1011,7 +981,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,21 +991,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1049,7 +1019,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1063,7 +1033,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1077,7 +1047,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1091,7 +1061,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1105,7 +1075,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1119,7 +1089,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1133,7 +1103,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1147,7 +1117,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1161,7 +1131,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1175,7 +1145,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1189,7 +1159,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1203,7 +1173,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1217,7 +1187,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1231,7 +1201,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1245,7 +1215,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1259,7 +1229,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1273,7 +1243,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1287,7 +1257,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1301,7 +1271,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1332,15 +1302,15 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
@@ -1348,57 +1318,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1409,19 +1379,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1432,22 +1402,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1458,16 +1428,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1478,19 +1448,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1501,22 +1471,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1527,10 +1497,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1541,10 +1511,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1555,10 +1525,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1569,10 +1539,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1583,10 +1553,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1597,10 +1567,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1611,10 +1581,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1642,7 +1612,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1652,72 +1622,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1782,7 +1752,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1847,7 +1817,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1912,7 +1882,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1977,7 +1947,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2042,7 +2012,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2107,7 +2077,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2172,7 +2142,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2237,7 +2207,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2302,7 +2272,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2367,7 +2337,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2432,7 +2402,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2497,7 +2467,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2576,434 +2546,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="1" sqref="B3 I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3023,214 +2868,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3252,7 +3056,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3262,72 +3066,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +3153,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3359,107 +3163,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3481,7 +3285,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3491,107 +3295,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3613,7 +3417,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3623,18 +3427,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3645,7 +3449,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3656,7 +3460,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3667,7 +3471,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3678,7 +3482,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3689,7 +3493,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3700,7 +3504,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3711,7 +3515,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3722,7 +3526,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3733,7 +3537,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3744,7 +3548,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3755,7 +3559,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3766,7 +3570,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3794,7 +3598,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3804,18 +3608,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3826,7 +3630,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3837,7 +3641,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3848,7 +3652,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3859,7 +3663,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3870,7 +3674,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3881,7 +3685,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3892,7 +3696,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3903,7 +3707,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3914,7 +3718,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3925,7 +3729,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3936,7 +3740,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3947,7 +3751,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3958,7 +3762,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3969,7 +3773,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3980,7 +3784,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3991,7 +3795,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -4002,7 +3806,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -4013,7 +3817,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4024,7 +3828,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -537,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,7 +612,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -981,7 +981,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="1" sqref="B3 I13"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2871,7 +2871,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3056,7 +3056,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3153,7 +3153,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3285,7 +3285,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3417,7 +3417,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3598,7 +3598,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -447,12 +444,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -482,7 +479,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -622,19 +619,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,16 +765,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,16 +988,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,40 +1315,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,13 +1356,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1382,16 +1379,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1405,16 +1402,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1431,13 +1428,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1451,16 +1448,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1474,16 +1471,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1500,7 +1497,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1514,7 +1511,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1528,7 +1525,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1542,7 +1539,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1556,7 +1553,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1570,7 +1567,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1584,7 +1581,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2546,16 +2543,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,21 +2565,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2590,13 +2581,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,13 +2592,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,13 +2603,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2632,111 +2614,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2744,13 +2702,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2758,13 +2713,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2772,13 +2724,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,13 +2735,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,13 +2746,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2814,13 +2757,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2828,13 +2768,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2842,13 +2779,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2885,20 +2819,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2909,7 +2843,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2920,7 +2854,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2931,7 +2865,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2942,7 +2876,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2953,7 +2887,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2964,7 +2898,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2975,7 +2909,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2986,7 +2920,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2997,7 +2931,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -3008,7 +2942,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -3019,7 +2953,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -3030,7 +2964,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3163,7 +3097,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,7 +3229,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,13 +3361,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,13 +3542,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -606,152 +605,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -970,7 +823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1291,7 +1144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2545,7 +2398,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2987,9 +2840,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3000,72 +2853,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3216,138 +3104,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3524,7 +3280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3780,4 +3536,150 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_freeExchange.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="106">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -430,7 +439,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,6 +450,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -478,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,64 +541,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -608,7 +635,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -618,21 +645,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -646,7 +673,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -660,7 +687,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -674,7 +701,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -688,7 +715,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -702,7 +729,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -716,7 +743,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -730,7 +757,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -744,7 +771,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -758,7 +785,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -772,7 +799,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -786,7 +813,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -800,7 +827,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -831,7 +858,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -841,21 +868,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -869,7 +896,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -883,7 +910,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -897,7 +924,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -911,7 +938,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -925,7 +952,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -939,7 +966,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -953,7 +980,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -967,7 +994,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -981,7 +1008,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -995,7 +1022,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1009,7 +1036,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1023,7 +1050,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1037,7 +1064,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1051,7 +1078,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1065,7 +1092,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1079,7 +1106,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1093,7 +1120,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1107,7 +1134,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1121,7 +1148,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1152,7 +1179,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A6:B7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1168,57 +1195,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1229,19 +1256,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1252,22 +1279,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1278,16 +1305,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1298,19 +1325,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1321,22 +1348,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1347,10 +1374,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1361,10 +1388,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1375,10 +1402,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1389,10 +1416,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1403,10 +1430,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1417,10 +1444,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1431,10 +1458,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1462,7 +1489,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1472,72 +1499,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1602,7 +1629,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1667,7 +1694,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1732,7 +1759,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1797,7 +1824,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1862,7 +1889,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1927,7 +1954,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1992,7 +2019,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2057,7 +2084,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2122,7 +2149,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2187,7 +2214,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2252,7 +2279,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2317,7 +2344,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2399,7 +2426,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2410,21 +2437,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2432,10 +2459,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2443,10 +2470,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2454,10 +2481,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2465,10 +2492,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2476,10 +2503,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2487,10 +2514,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2498,10 +2525,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2509,10 +2536,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2520,10 +2547,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2531,10 +2558,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2542,10 +2569,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2553,10 +2580,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2564,10 +2591,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2575,10 +2602,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2586,10 +2613,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2597,10 +2624,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2608,10 +2635,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2619,10 +2646,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2630,10 +2657,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2658,7 +2685,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2669,24 +2696,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2694,10 +2721,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2705,10 +2732,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2716,10 +2743,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2727,10 +2754,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2738,10 +2765,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2749,10 +2776,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2760,10 +2787,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2771,10 +2798,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2782,10 +2809,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2793,10 +2820,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2804,10 +2831,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2815,10 +2842,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2842,8 +2869,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2853,107 +2880,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2975,7 +3002,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2985,107 +3012,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3134,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3117,18 +3144,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3139,7 +3166,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3150,7 +3177,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3161,7 +3188,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3172,7 +3199,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3183,7 +3210,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3194,7 +3221,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3205,7 +3232,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3216,7 +3243,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3227,7 +3254,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3238,7 +3265,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3249,7 +3276,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3260,7 +3287,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3288,7 +3315,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3298,18 +3325,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3320,7 +3347,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3331,7 +3358,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3342,7 +3369,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3353,7 +3380,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3364,7 +3391,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3375,7 +3402,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3386,7 +3413,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3397,7 +3424,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3408,7 +3435,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3419,7 +3446,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3430,7 +3457,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3441,7 +3468,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3452,7 +3479,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3463,7 +3490,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3474,7 +3501,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3485,7 +3512,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3496,7 +3523,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3507,7 +3534,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3518,7 +3545,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3546,7 +3573,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A6:B7 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3556,24 +3583,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3590,7 +3617,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3607,7 +3634,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3624,7 +3651,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3641,7 +3668,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3658,7 +3685,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
